--- a/biology/Botanique/Leucobryum/Leucobryum.xlsx
+++ b/biology/Botanique/Leucobryum/Leucobryum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre de mousses végétales Leucobryum appartient à la famille des Dicranaceae. Il comprend 83 espèces, dont deux se rencontrent en Europe: Leucobryum glaucum et Leucobryum juniperoideum. Les autres espèces se rencontrent surtout dans les Tropiques.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 décembre 2018) :
 Leucobryum albidum (Brid. ex P. Beauv.) Lindb.
 Leucobryum antillarum Schimp. ex Besch.
 Leucobryum glaucum (Hedw.) Angstr.
 Leucobryum juniperoideum (Brid.) Müll. Hal.
-Selon Catalogue of Life                                   (5 décembre 2018)[3] :
+Selon Catalogue of Life                                   (5 décembre 2018) :
 Leucobryum acutifolium Cardot, 1904
 Leucobryum aduncum Dozy &amp; Molkenboer, 1854
 Leucobryum albescens C. Müller, 1900
@@ -602,11 +616,11 @@
 Leucobryum turgidulum C. Müller, 1900
 Leucobryum uleanum Brotherus, 1906
 Leucobryum wattsii Brotherus, 1916
-Selon ITIS      (5 décembre 2018)[4] :
+Selon ITIS      (5 décembre 2018) :
 Leucobryum albidum (Brid. ex P. Beauv.) Lindb.
 Leucobryum antillarum Schimp. ex Besch.
 Leucobryum glaucum (Hedw.) Ångstr. in Fries
-Selon NCBI  (5 décembre 2018)[5] :
+Selon NCBI  (5 décembre 2018) :
 Leucobryum aduncum Dozy &amp; Molk.
 Leucobryum albidum (Brid. ex P.Beauv.) Lindb.
 Leucobryum antillarum Schimp. ex Besch.
@@ -632,7 +646,7 @@
 Leucobryum subobtusifolium (Broth.) B.H.Allen, 1992
 Leucobryum sumatranum Broth. ex M.Fleisch.
 Leucobryum tahitense Angstrom
-Selon The Plant List            (5 décembre 2018)[6] :
+Selon The Plant List            (5 décembre 2018) :
 Leucobryum acutifolium (Mitt.) Cardot
 Leucobryum aduncum Dozy &amp; Molk.
 Leucobryum albescens Müll. Hal.
@@ -728,7 +742,7 @@
 Leucobryum uleanum Broth.
 Leucobryum wattsii Broth.
 Leucobryum wightii Mitt.
-Selon Tropicos                                           (5 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Leucobryum acutifolium (Mitt.) Cardot
 Leucobryum aduncum Dozy &amp; Molk.
 Leucobryum albescens Müll. Hal.
